--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -7,16 +7,13 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet 2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet 2" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>string</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -71,26 +68,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:1">
       <c r="A1" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="C1" s="1">
-        <f>A1 + B1</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
+      <c r="A2" s="1" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:1">
@@ -113,4 +104,16 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -13,15 +13,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>Product/Service</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>HsnId/ Tax Id</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Engine Cover</t>
+  </si>
+  <si>
+    <t>HSN7566</t>
+  </si>
+  <si>
+    <t>Engine Two</t>
+  </si>
+  <si>
+    <t>New Tech</t>
+  </si>
+  <si>
+    <t>New Shield</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt formatCode="$#,##0.00; ($#,##0.00); -" numFmtId="164"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -30,13 +58,20 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0800"/>
+      <color rgb="FF008000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0800"/>
+      <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="1"/>
     </font>
@@ -58,35 +93,110 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
-    <xf applyFont="1" fontId="2" applyNumberFormat="1" numFmtId="164"/>
+    <xf applyFont="1" fontId="1"/>
+    <xf applyFont="1" fontId="2"/>
+    <xf applyFont="1" fontId="3"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="1" t="n">
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="n">
-        <v>150</v>
-      </c>
-    </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="b">
+      <c r="A3" s="3" t="b">
         <v>true</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>1400</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>1600</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>1560</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -13,43 +13,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>S.NO</t>
+  </si>
   <si>
     <t>Product/Service</t>
-  </si>
-  <si>
-    <t>Price</t>
   </si>
   <si>
     <t>HsnId/ Tax Id</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>Price Mrp</t>
   </si>
   <si>
-    <t>Engine Cover</t>
+    <t>Quantity</t>
   </si>
   <si>
-    <t>HSN7566</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Engine Two</t>
+    <t>Taxable Value</t>
   </si>
   <si>
-    <t>New Tech</t>
+    <t>CGST %</t>
   </si>
   <si>
-    <t>New Shield</t>
+    <t>SGST %</t>
   </si>
   <si>
-    <t>Testing</t>
+    <t>Gajan Pin</t>
+  </si>
+  <si>
+    <t>HSN01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -65,12 +68,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color rgb="FF008000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color rgb="FF008000"/>
       <name val="Calibri"/>
       <family val="1"/>
@@ -93,29 +90,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="1"/>
     <xf applyFont="1" fontId="2"/>
-    <xf applyFont="1" fontId="3"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="3" spans="1:1">
-      <c r="A3" s="3" t="b">
-        <v>true</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:9">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -128,75 +119,49 @@
       <c r="D5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="n">
-        <v>2500</v>
+      <c r="F5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>1</v>
+        <v>155</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="E6" s="1" t="n">
+        <v>2</v>
       </c>
-      <c r="B7" s="1" t="n">
-        <v>1400</v>
+      <c r="F6" s="1" t="n">
+        <v>206.15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>5</v>
+      <c r="G6" s="1" t="n">
+        <v>206.15</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>1</v>
+      <c r="H6" s="1" t="n">
+        <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>1400</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>1600</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="n">
-        <v>1560</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>1</v>
+      <c r="I6" s="1" t="n">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -152,10 +152,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>206.15</v>
+        <v>412.3</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>206.15</v>
+        <v>412.3</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>18</v>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>S.NO</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>HSN01</t>
+  </si>
+  <si>
+    <t>Engine Oil</t>
+  </si>
+  <si>
+    <t>Enine</t>
   </si>
 </sst>
 </file>
@@ -100,7 +106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -161,6 +167,64 @@
         <v>18</v>
       </c>
       <c r="I6" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>332.5</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>2500</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>3325</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>3325</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I8" s="1" t="n">
         <v>15</v>
       </c>
     </row>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>S.NO</t>
   </si>
@@ -42,16 +42,10 @@
     <t>SGST %</t>
   </si>
   <si>
-    <t>Gajan Pin</t>
+    <t>Gopinath Kaliappan</t>
   </si>
   <si>
-    <t>HSN01</t>
-  </si>
-  <si>
-    <t>Engine Oil</t>
-  </si>
-  <si>
-    <t>Enine</t>
+    <t>HSN014</t>
   </si>
 </sst>
 </file>
@@ -106,7 +100,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -152,80 +146,22 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>155</v>
+        <v>1520</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>412.3</v>
+        <v>1915.2</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>412.3</v>
+        <v>1915.2</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>250</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>332.5</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>332.5</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="1" t="n">
-        <v>2500</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1" t="n">
-        <v>3325</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>3325</v>
-      </c>
-      <c r="H8" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="I8" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>S.NO</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>HSN014</t>
+  </si>
+  <si>
+    <t>Karthick</t>
+  </si>
+  <si>
+    <t>HSN015</t>
   </si>
 </sst>
 </file>
@@ -100,7 +106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -162,6 +168,35 @@
       </c>
       <c r="I6" s="1" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>235.95</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>235.95</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -155,13 +155,13 @@
         <v>1520</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>1915.2</v>
+        <v>3830.4</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>1915.2</v>
+        <v>3830.4</v>
       </c>
       <c r="H6" s="1" t="n">
         <v>12</v>
@@ -184,13 +184,13 @@
         <v>165</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>235.95</v>
+        <v>471.9</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>235.95</v>
+        <v>471.9</v>
       </c>
       <c r="H7" s="1" t="n">
         <v>18</v>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -42,16 +42,16 @@
     <t>SGST %</t>
   </si>
   <si>
+    <t>Karthick</t>
+  </si>
+  <si>
+    <t>HSN015</t>
+  </si>
+  <si>
     <t>Gopinath Kaliappan</t>
   </si>
   <si>
     <t>HSN014</t>
-  </si>
-  <si>
-    <t>Karthick</t>
-  </si>
-  <si>
-    <t>HSN015</t>
   </si>
 </sst>
 </file>
@@ -152,22 +152,22 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>1520</v>
+        <v>165</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>3830.4</v>
+        <v>943.8</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>3830.4</v>
+        <v>943.8</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -181,22 +181,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>165</v>
+        <v>1520</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>471.9</v>
+        <v>1915.2</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>471.9</v>
+        <v>1915.2</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -42,16 +42,16 @@
     <t>SGST %</t>
   </si>
   <si>
+    <t>Gopinath Kaliappan</t>
+  </si>
+  <si>
+    <t>HSN014</t>
+  </si>
+  <si>
     <t>Karthick</t>
   </si>
   <si>
     <t>HSN015</t>
-  </si>
-  <si>
-    <t>Gopinath Kaliappan</t>
-  </si>
-  <si>
-    <t>HSN014</t>
   </si>
 </sst>
 </file>
@@ -152,22 +152,22 @@
         <v>10</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>165</v>
+        <v>1520</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>943.8</v>
+        <v>1915.2</v>
       </c>
       <c r="G6" s="1" t="n">
-        <v>943.8</v>
+        <v>1915.2</v>
       </c>
       <c r="H6" s="1" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="I6" s="1" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -181,22 +181,22 @@
         <v>12</v>
       </c>
       <c r="D7" s="1" t="n">
-        <v>1520</v>
+        <v>165</v>
       </c>
       <c r="E7" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>1915.2</v>
+        <v>235.95</v>
       </c>
       <c r="G7" s="1" t="n">
-        <v>1915.2</v>
+        <v>235.95</v>
       </c>
       <c r="H7" s="1" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="I7" s="1" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>S.NO</t>
   </si>
@@ -40,18 +40,6 @@
   </si>
   <si>
     <t>SGST %</t>
-  </si>
-  <si>
-    <t>Gopinath Kaliappan</t>
-  </si>
-  <si>
-    <t>HSN014</t>
-  </si>
-  <si>
-    <t>Karthick</t>
-  </si>
-  <si>
-    <t>HSN015</t>
   </si>
 </sst>
 </file>
@@ -106,7 +94,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -141,64 +129,6 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1" t="n">
-        <v>1520</v>
-      </c>
-      <c r="E6" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1" t="n">
-        <v>1915.2</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>1915.2</v>
-      </c>
-      <c r="H6" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="I6" s="1" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>235.95</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>235.95</v>
-      </c>
-      <c r="H7" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="I7" s="1" t="n">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Excel.xlsx
+++ b/Excel.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>S.NO</t>
   </si>
@@ -40,6 +40,18 @@
   </si>
   <si>
     <t>SGST %</t>
+  </si>
+  <si>
+    <t>Gopinath Kaliappan</t>
+  </si>
+  <si>
+    <t>HSN014</t>
+  </si>
+  <si>
+    <t>Karthick</t>
+  </si>
+  <si>
+    <t>HSN015</t>
   </si>
 </sst>
 </file>
@@ -94,7 +106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -127,6 +139,64 @@
       </c>
       <c r="I5" s="2" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>1520</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>1915.2</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>1915.2</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="I6" s="1" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>235.95</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>235.95</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
